--- a/outputs/reimport_invoice_factory_Daman.xlsx
+++ b/outputs/reimport_invoice_factory_Daman.xlsx
@@ -641,7 +641,7 @@
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n">
-        <v>350</v>
+        <v>48.74651810584955</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>5</v>
@@ -651,7 +651,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n"/>
+      <c r="H2" s="4" t="n">
+        <v>243.7325905292477</v>
+      </c>
       <c r="I2" s="5" t="n">
         <v>1.23</v>
       </c>
@@ -727,7 +729,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>500</v>
@@ -737,7 +739,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n"/>
+      <c r="H3" s="4" t="n">
+        <v>348.1894150417825</v>
+      </c>
       <c r="I3" s="5" t="n">
         <v>2.5</v>
       </c>
@@ -811,7 +815,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>400</v>
@@ -821,7 +825,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n"/>
+      <c r="H4" s="4" t="n">
+        <v>278.551532033426</v>
+      </c>
       <c r="I4" s="5" t="n">
         <v>2</v>
       </c>
@@ -895,7 +901,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>40</v>
@@ -905,7 +911,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n"/>
+      <c r="H5" s="4" t="n">
+        <v>27.8551532033426</v>
+      </c>
       <c r="I5" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -979,7 +987,7 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3</v>
+        <v>0.417827298050139</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>40</v>
@@ -989,7 +997,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n"/>
+      <c r="H6" s="4" t="n">
+        <v>16.71309192200556</v>
+      </c>
       <c r="I6" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -1063,7 +1073,7 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.2</v>
+        <v>0.1671309192200556</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>140</v>
@@ -1073,7 +1083,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n"/>
+      <c r="H7" s="4" t="n">
+        <v>23.39832869080778</v>
+      </c>
       <c r="I7" s="5" t="n">
         <v>0.7</v>
       </c>
@@ -1147,7 +1159,7 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1378830083565458</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>250</v>
@@ -1157,7 +1169,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n"/>
+      <c r="H8" s="4" t="n">
+        <v>34.47075208913646</v>
+      </c>
       <c r="I8" s="5" t="n">
         <v>1.25</v>
       </c>
@@ -1231,7 +1245,7 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>388</v>
@@ -1241,7 +1255,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n"/>
+      <c r="H9" s="4" t="n">
+        <v>71.33147632311972</v>
+      </c>
       <c r="I9" s="5" t="n">
         <v>3.49</v>
       </c>
@@ -1315,7 +1331,7 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>457</v>
@@ -1325,7 +1341,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n"/>
+      <c r="H10" s="4" t="n">
+        <v>84.01671309192194</v>
+      </c>
       <c r="I10" s="5" t="n">
         <v>4.11</v>
       </c>
@@ -1399,7 +1417,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>458</v>
@@ -1409,7 +1427,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n"/>
+      <c r="H11" s="4" t="n">
+        <v>84.200557103064</v>
+      </c>
       <c r="I11" s="5" t="n">
         <v>4.12</v>
       </c>
@@ -1483,7 +1503,7 @@
         </is>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>287</v>
@@ -1493,7 +1513,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n"/>
+      <c r="H12" s="4" t="n">
+        <v>52.76323119777155</v>
+      </c>
       <c r="I12" s="5" t="n">
         <v>2.58</v>
       </c>
@@ -1567,7 +1589,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>40</v>
@@ -1577,7 +1599,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n"/>
+      <c r="H13" s="4" t="n">
+        <v>7.353760445682446</v>
+      </c>
       <c r="I13" s="5" t="n">
         <v>0.36</v>
       </c>
@@ -1651,7 +1675,7 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>60</v>
@@ -1661,7 +1685,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n"/>
+      <c r="H14" s="4" t="n">
+        <v>11.03064066852367</v>
+      </c>
       <c r="I14" s="5" t="n">
         <v>0.54</v>
       </c>
@@ -1735,7 +1761,7 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>50</v>
@@ -1745,7 +1771,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n"/>
+      <c r="H15" s="4" t="n">
+        <v>9.192200557103057</v>
+      </c>
       <c r="I15" s="5" t="n">
         <v>0.45</v>
       </c>
@@ -1819,7 +1847,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>50</v>
@@ -1829,7 +1857,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n"/>
+      <c r="H16" s="4" t="n">
+        <v>9.192200557103057</v>
+      </c>
       <c r="I16" s="5" t="n">
         <v>0.45</v>
       </c>
@@ -1903,7 +1933,7 @@
         </is>
       </c>
       <c r="E17" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>110</v>
@@ -1913,7 +1943,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n"/>
+      <c r="H17" s="4" t="n">
+        <v>20.22284122562673</v>
+      </c>
       <c r="I17" s="5" t="n">
         <v>0.99</v>
       </c>
@@ -1987,7 +2019,7 @@
         </is>
       </c>
       <c r="E18" s="4" t="n">
-        <v>3400</v>
+        <v>473.5376044568242</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>10</v>
@@ -1997,7 +2029,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n"/>
+      <c r="H18" s="4" t="n">
+        <v>4735.376044568242</v>
+      </c>
       <c r="I18" s="5" t="n">
         <v>270</v>
       </c>
@@ -2071,7 +2105,7 @@
         </is>
       </c>
       <c r="E19" s="4" t="n">
-        <v>5150</v>
+        <v>717.2701949860718</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>10</v>
@@ -2081,7 +2115,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n"/>
+      <c r="H19" s="4" t="n">
+        <v>7172.701949860719</v>
+      </c>
       <c r="I19" s="5" t="n">
         <v>440</v>
       </c>
@@ -2155,7 +2191,7 @@
         </is>
       </c>
       <c r="E20" s="4" t="n">
-        <v>520</v>
+        <v>72.42339832869075</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>3</v>
@@ -2165,7 +2201,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n"/>
+      <c r="H20" s="4" t="n">
+        <v>217.2701949860723</v>
+      </c>
       <c r="I20" s="5" t="n">
         <v>2.88</v>
       </c>
@@ -2239,7 +2277,7 @@
         </is>
       </c>
       <c r="E21" s="4" t="n">
-        <v>15.06</v>
+        <v>2.097493036211698</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>45</v>
@@ -2249,7 +2287,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n"/>
+      <c r="H21" s="4" t="n">
+        <v>94.3871866295264</v>
+      </c>
       <c r="I21" s="5" t="n">
         <v>2.12</v>
       </c>
@@ -2323,7 +2363,7 @@
         </is>
       </c>
       <c r="E22" s="4" t="n">
-        <v>4.6</v>
+        <v>0.6406685236768797</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>100</v>
@@ -2333,7 +2373,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n"/>
+      <c r="H22" s="4" t="n">
+        <v>64.06685236768797</v>
+      </c>
       <c r="I22" s="5" t="n">
         <v>3</v>
       </c>
@@ -2407,7 +2449,7 @@
         </is>
       </c>
       <c r="E23" s="4" t="n">
-        <v>2.28</v>
+        <v>0.3175487465181056</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>60</v>
@@ -2417,7 +2459,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n"/>
+      <c r="H23" s="4" t="n">
+        <v>19.05292479108634</v>
+      </c>
       <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
@@ -2491,7 +2535,7 @@
         </is>
       </c>
       <c r="E24" s="4" t="n">
-        <v>4.5</v>
+        <v>0.6267409470752084</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>100</v>
@@ -2501,7 +2545,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n"/>
+      <c r="H24" s="4" t="n">
+        <v>62.67409470752084</v>
+      </c>
       <c r="I24" s="5" t="n">
         <v>5</v>
       </c>
@@ -2575,7 +2621,7 @@
         </is>
       </c>
       <c r="E25" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>1.178272980501392</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>90</v>
@@ -2585,7 +2631,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n"/>
+      <c r="H25" s="4" t="n">
+        <v>106.0445682451253</v>
+      </c>
       <c r="I25" s="5" t="n">
         <v>11</v>
       </c>
@@ -2659,7 +2707,7 @@
         </is>
       </c>
       <c r="E26" s="4" t="n">
-        <v>450</v>
+        <v>62.67409470752084</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>2</v>
@@ -2669,7 +2717,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n"/>
+      <c r="H26" s="4" t="n">
+        <v>125.3481894150417</v>
+      </c>
       <c r="I26" s="5" t="n">
         <v>1.09</v>
       </c>
@@ -2743,7 +2793,7 @@
         </is>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0.83</v>
+        <v>0.1155988857938718</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>31</v>
@@ -2753,7 +2803,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n"/>
+      <c r="H27" s="4" t="n">
+        <v>3.583565459610025</v>
+      </c>
       <c r="I27" s="5" t="n">
         <v>0.3</v>
       </c>
@@ -2827,7 +2879,7 @@
         </is>
       </c>
       <c r="E28" s="4" t="n">
-        <v>0.37</v>
+        <v>0.0515320334261838</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>100</v>
@@ -2837,7 +2889,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n"/>
+      <c r="H28" s="4" t="n">
+        <v>5.15320334261838</v>
+      </c>
       <c r="I28" s="5" t="n">
         <v>0.1</v>
       </c>
@@ -2911,7 +2965,7 @@
         </is>
       </c>
       <c r="E29" s="4" t="n">
-        <v>9.1</v>
+        <v>1.267409470752088</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>6</v>
@@ -2921,7 +2975,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n"/>
+      <c r="H29" s="4" t="n">
+        <v>7.604456824512529</v>
+      </c>
       <c r="I29" s="5" t="n">
         <v>1.6</v>
       </c>
@@ -2995,7 +3051,7 @@
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>720</v>
+        <v>100.2785515320333</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>2</v>
@@ -3005,7 +3061,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n"/>
+      <c r="H30" s="4" t="n">
+        <v>200.5571030640667</v>
+      </c>
       <c r="I30" s="5" t="n">
         <v>4.2</v>
       </c>
@@ -3079,7 +3137,7 @@
         </is>
       </c>
       <c r="E31" s="4" t="n">
-        <v>2.1</v>
+        <v>0.2924791086350973</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>40</v>
@@ -3089,7 +3147,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n"/>
+      <c r="H31" s="4" t="n">
+        <v>11.69916434540389</v>
+      </c>
       <c r="I31" s="5" t="n">
         <v>1</v>
       </c>
@@ -3163,7 +3223,7 @@
         </is>
       </c>
       <c r="E32" s="4" t="n">
-        <v>145</v>
+        <v>20.19498607242338</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>2</v>
@@ -3173,7 +3233,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n"/>
+      <c r="H32" s="4" t="n">
+        <v>40.38997214484677</v>
+      </c>
       <c r="I32" s="5" t="n">
         <v>0.8</v>
       </c>
@@ -3247,7 +3309,7 @@
         </is>
       </c>
       <c r="E33" s="4" t="n">
-        <v>16.7</v>
+        <v>2.325905292479107</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>50</v>
@@ -3257,7 +3319,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n"/>
+      <c r="H33" s="4" t="n">
+        <v>116.2952646239553</v>
+      </c>
       <c r="I33" s="5" t="n">
         <v>5</v>
       </c>
@@ -3331,7 +3395,7 @@
         </is>
       </c>
       <c r="E34" s="4" t="n">
-        <v>9.9</v>
+        <v>1.378830083565459</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>100</v>
@@ -3341,7 +3405,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n"/>
+      <c r="H34" s="4" t="n">
+        <v>137.8830083565458</v>
+      </c>
       <c r="I34" s="5" t="n">
         <v>5.2</v>
       </c>
@@ -3415,7 +3481,7 @@
         </is>
       </c>
       <c r="E35" s="4" t="n">
-        <v>55.9</v>
+        <v>7.785515320334256</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>2</v>
@@ -3425,7 +3491,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H35" s="4" t="n"/>
+      <c r="H35" s="4" t="n">
+        <v>15.57103064066851</v>
+      </c>
       <c r="I35" s="5" t="n">
         <v>5.8</v>
       </c>
@@ -3499,7 +3567,7 @@
         </is>
       </c>
       <c r="E36" s="4" t="n">
-        <v>9.9</v>
+        <v>1.378830083565459</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>93</v>
@@ -3509,7 +3577,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H36" s="4" t="n"/>
+      <c r="H36" s="4" t="n">
+        <v>128.2311977715877</v>
+      </c>
       <c r="I36" s="5" t="n">
         <v>5.2</v>
       </c>
@@ -3583,7 +3653,7 @@
         </is>
       </c>
       <c r="E37" s="4" t="n">
-        <v>1.36</v>
+        <v>0.1894150417827297</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>42</v>
@@ -3593,7 +3663,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H37" s="4" t="n"/>
+      <c r="H37" s="4" t="n">
+        <v>7.955431754874646</v>
+      </c>
       <c r="I37" s="5" t="n">
         <v>5.8</v>
       </c>
@@ -3667,7 +3739,7 @@
         </is>
       </c>
       <c r="E38" s="4" t="n">
-        <v>2.45</v>
+        <v>0.3412256267409469</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>70</v>
@@ -3677,7 +3749,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H38" s="4" t="n"/>
+      <c r="H38" s="4" t="n">
+        <v>23.88579387186628</v>
+      </c>
       <c r="I38" s="5" t="n">
         <v>1.5</v>
       </c>
@@ -3751,7 +3825,7 @@
         </is>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.18</v>
+        <v>0.1643454038997213</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>70</v>
@@ -3761,7 +3835,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n"/>
+      <c r="H39" s="4" t="n">
+        <v>11.50417827298049</v>
+      </c>
       <c r="I39" s="5" t="n">
         <v>1.5</v>
       </c>
@@ -3835,7 +3911,7 @@
         </is>
       </c>
       <c r="E40" s="4" t="n">
-        <v>18.5</v>
+        <v>2.57660167130919</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>50</v>
@@ -3845,7 +3921,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H40" s="4" t="n"/>
+      <c r="H40" s="4" t="n">
+        <v>128.8300835654595</v>
+      </c>
       <c r="I40" s="5" t="n">
         <v>1</v>
       </c>
@@ -3919,7 +3997,7 @@
         </is>
       </c>
       <c r="E41" s="4" t="n">
-        <v>2.5</v>
+        <v>0.3481894150417825</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>348</v>
@@ -3929,7 +4007,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H41" s="4" t="n"/>
+      <c r="H41" s="4" t="n">
+        <v>121.1699164345403</v>
+      </c>
       <c r="I41" s="5" t="n">
         <v>9.300000000000001</v>
       </c>
@@ -4003,7 +4083,7 @@
         </is>
       </c>
       <c r="E42" s="4" t="n">
-        <v>42</v>
+        <v>5.849582172701945</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>20</v>
@@ -4013,7 +4093,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H42" s="4" t="n"/>
+      <c r="H42" s="4" t="n">
+        <v>116.9916434540389</v>
+      </c>
       <c r="I42" s="5" t="n">
         <v>2.56</v>
       </c>
@@ -4087,7 +4169,7 @@
         </is>
       </c>
       <c r="E43" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>100</v>
@@ -4097,7 +4179,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H43" s="4" t="n"/>
+      <c r="H43" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I43" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4171,7 +4255,7 @@
         </is>
       </c>
       <c r="E44" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>100</v>
@@ -4181,7 +4265,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H44" s="4" t="n"/>
+      <c r="H44" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I44" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4255,7 +4341,7 @@
         </is>
       </c>
       <c r="E45" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>100</v>
@@ -4265,7 +4351,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H45" s="4" t="n"/>
+      <c r="H45" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I45" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4339,7 +4427,7 @@
         </is>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>100</v>
@@ -4349,7 +4437,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H46" s="4" t="n"/>
+      <c r="H46" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I46" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4423,7 +4513,7 @@
         </is>
       </c>
       <c r="E47" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>100</v>
@@ -4433,7 +4523,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H47" s="4" t="n"/>
+      <c r="H47" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I47" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4507,7 +4599,7 @@
         </is>
       </c>
       <c r="E48" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>100</v>
@@ -4517,7 +4609,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H48" s="4" t="n"/>
+      <c r="H48" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I48" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4591,7 +4685,7 @@
         </is>
       </c>
       <c r="E49" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>100</v>
@@ -4601,7 +4695,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H49" s="4" t="n"/>
+      <c r="H49" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I49" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4675,7 +4771,7 @@
         </is>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>100</v>
@@ -4685,7 +4781,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H50" s="4" t="n"/>
+      <c r="H50" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I50" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4759,7 +4857,7 @@
         </is>
       </c>
       <c r="E51" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03899721448467964</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>100</v>
@@ -4769,7 +4867,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H51" s="4" t="n"/>
+      <c r="H51" s="4" t="n">
+        <v>3.899721448467964</v>
+      </c>
       <c r="I51" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4843,7 +4943,7 @@
         </is>
       </c>
       <c r="E52" s="4" t="n">
-        <v>0.6</v>
+        <v>0.08356545961002779</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>100</v>
@@ -4853,7 +4953,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H52" s="4" t="n"/>
+      <c r="H52" s="4" t="n">
+        <v>8.356545961002778</v>
+      </c>
       <c r="I52" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4927,7 +5029,7 @@
         </is>
       </c>
       <c r="E53" s="4" t="n">
-        <v>0.24</v>
+        <v>0.03342618384401112</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>100</v>
@@ -4937,7 +5039,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H53" s="4" t="n"/>
+      <c r="H53" s="4" t="n">
+        <v>3.342618384401112</v>
+      </c>
       <c r="I53" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -5011,7 +5115,7 @@
         </is>
       </c>
       <c r="E54" s="4" t="n">
-        <v>0.38</v>
+        <v>0.05292479108635094</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>100</v>
@@ -5021,7 +5125,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H54" s="4" t="n"/>
+      <c r="H54" s="4" t="n">
+        <v>5.292479108635094</v>
+      </c>
       <c r="I54" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -5095,7 +5201,7 @@
         </is>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0.2</v>
+        <v>0.0278551532033426</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>100</v>
@@ -5105,7 +5211,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H55" s="4" t="n"/>
+      <c r="H55" s="4" t="n">
+        <v>2.78551532033426</v>
+      </c>
       <c r="I55" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -5179,7 +5287,7 @@
         </is>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.2</v>
+        <v>0.1671309192200556</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>420</v>
@@ -5189,7 +5297,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H56" s="4" t="n"/>
+      <c r="H56" s="4" t="n">
+        <v>70.19498607242335</v>
+      </c>
       <c r="I56" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -5263,7 +5373,7 @@
         </is>
       </c>
       <c r="E57" s="4" t="n">
-        <v>3.5</v>
+        <v>0.4874651810584955</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>100</v>
@@ -5273,7 +5383,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H57" s="4" t="n"/>
+      <c r="H57" s="4" t="n">
+        <v>48.74651810584955</v>
+      </c>
       <c r="I57" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -5347,7 +5459,7 @@
         </is>
       </c>
       <c r="E58" s="4" t="n">
-        <v>80</v>
+        <v>11.14206128133704</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>1</v>
@@ -5357,7 +5469,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H58" s="4" t="n"/>
+      <c r="H58" s="4" t="n">
+        <v>11.14206128133704</v>
+      </c>
       <c r="I58" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -5431,7 +5545,7 @@
         </is>
       </c>
       <c r="E59" s="4" t="n">
-        <v>1700</v>
+        <v>236.7688022284121</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>2</v>
@@ -5441,7 +5555,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H59" s="4" t="n"/>
+      <c r="H59" s="4" t="n">
+        <v>473.5376044568242</v>
+      </c>
       <c r="I59" s="5" t="n">
         <v>1</v>
       </c>
@@ -5515,7 +5631,7 @@
         </is>
       </c>
       <c r="E60" s="4" t="n">
-        <v>2700</v>
+        <v>376.044568245125</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>5</v>
@@ -5525,7 +5641,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H60" s="4" t="n"/>
+      <c r="H60" s="4" t="n">
+        <v>1880.222841225625</v>
+      </c>
       <c r="I60" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -5599,7 +5717,7 @@
         </is>
       </c>
       <c r="E61" s="4" t="n">
-        <v>1100</v>
+        <v>153.2033426183843</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>1</v>
@@ -5609,7 +5727,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H61" s="4" t="n"/>
+      <c r="H61" s="4" t="n">
+        <v>153.2033426183843</v>
+      </c>
       <c r="I61" s="5" t="n">
         <v>0.4</v>
       </c>
@@ -5683,7 +5803,7 @@
         </is>
       </c>
       <c r="E62" s="4" t="n">
-        <v>1100</v>
+        <v>153.2033426183843</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>1</v>
@@ -5693,7 +5813,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H62" s="4" t="n"/>
+      <c r="H62" s="4" t="n">
+        <v>153.2033426183843</v>
+      </c>
       <c r="I62" s="5" t="n">
         <v>0.4</v>
       </c>

--- a/outputs/reimport_invoice_factory_Daman.xlsx
+++ b/outputs/reimport_invoice_factory_Daman.xlsx
@@ -571,12 +571,12 @@
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>保费</t>
+          <t>总保费</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>运费</t>
+          <t>总运费</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n">
-        <v>48.74651810584955</v>
+        <v>48.74651811</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>5</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>243.7325905292477</v>
+        <v>243.73259055</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>1.23</v>
@@ -670,25 +670,25 @@
         <v>1837.5</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>0.2</v>
+        <v>172.5893015</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>1.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>2.96</v>
+        <v>2.54</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>1840.46</v>
+        <v>1840.04</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>368.09</v>
+        <v>368.01</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>2642.9</v>
+        <v>2642.29</v>
       </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>500</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>348.1894150417825</v>
+        <v>348.189415</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>2.5</v>
@@ -758,19 +758,19 @@
         <v>2625</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>3.97</v>
+        <v>6339.01</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>5.41</v>
+        <v>5.16</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>2630.41</v>
+        <v>2630.16</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>5.26</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>400</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>278.551532033426</v>
+        <v>278.551532</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2</v>
@@ -844,19 +844,19 @@
         <v>2100</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>3.17</v>
+        <v>6339.01</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>4.33</v>
+        <v>4.13</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>2104.33</v>
+        <v>2104.13</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>5.26</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>40</v>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.8551532033426</v>
+        <v>27.8551532</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0.2</v>
@@ -930,19 +930,19 @@
         <v>210</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P5" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>210.43</v>
+        <v>210.41</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>5.26</v>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.417827298050139</v>
+        <v>0.4178273</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>40</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>16.71309192200556</v>
+        <v>16.713092</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>0.2</v>
@@ -1016,19 +1016,19 @@
         <v>126</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P6" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>126.39</v>
+        <v>126.41</v>
       </c>
       <c r="S6" s="5" t="n">
         <v>3.16</v>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.1671309192200556</v>
+        <v>0.16713092</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>140</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>23.39832869080778</v>
+        <v>23.3983288</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.7</v>
@@ -1102,25 +1102,25 @@
         <v>176.4</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>1.11</v>
+        <v>6339.01</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>177.61</v>
+        <v>177.84</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>1.27</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9.109999999999999</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.1378830083565458</v>
+        <v>0.13788301</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>250</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>34.47075208913646</v>
+        <v>34.4707525</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>1.25</v>
@@ -1188,25 +1188,25 @@
         <v>259.88</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>1.98</v>
+        <v>6339.01</v>
       </c>
       <c r="P8" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>2.13</v>
+        <v>2.58</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>262</v>
+        <v>262.45</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>1.05</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7.52</v>
+        <v>7.54</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>388</v>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>71.33147632311972</v>
+        <v>71.33147588</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>3.49</v>
@@ -1274,25 +1274,25 @@
         <v>537.77</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>5.54</v>
+        <v>6339.01</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>5.83</v>
+        <v>7.2</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>543.6</v>
+        <v>544.97</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>457</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>84.01671309192194</v>
+        <v>84.01671257</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.11</v>
@@ -1360,25 +1360,25 @@
         <v>633.4</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>6.52</v>
+        <v>6339.01</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>6.87</v>
+        <v>8.48</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>640.27</v>
+        <v>641.88</v>
       </c>
       <c r="S10" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>458</v>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>84.200557103064</v>
+        <v>84.20055658</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>4.12</v>
@@ -1446,25 +1446,25 @@
         <v>634.79</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O11" s="5" t="n">
-        <v>6.54</v>
+        <v>6339.01</v>
       </c>
       <c r="P11" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>6.89</v>
+        <v>8.5</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>641.67</v>
+        <v>643.29</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>287</v>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>52.76323119777155</v>
+        <v>52.76323087</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>2.58</v>
@@ -1532,25 +1532,25 @@
         <v>397.78</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O12" s="5" t="n">
-        <v>4.09</v>
+        <v>6339.01</v>
       </c>
       <c r="P12" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>4.31</v>
+        <v>5.32</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>402.09</v>
+        <v>403.1</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>40</v>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>7.353760445682446</v>
+        <v>7.3537604</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.36</v>
@@ -1618,25 +1618,25 @@
         <v>55.44</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O13" s="5" t="n">
-        <v>0.57</v>
+        <v>6339.01</v>
       </c>
       <c r="P13" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>56.04</v>
+        <v>56.18</v>
       </c>
       <c r="S13" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>60</v>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>11.03064066852367</v>
+        <v>11.0306406</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0.54</v>
@@ -1704,25 +1704,25 @@
         <v>83.16</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O14" s="5" t="n">
-        <v>0.86</v>
+        <v>6339.01</v>
       </c>
       <c r="P14" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>0.9</v>
+        <v>1.11</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>84.06</v>
+        <v>84.27</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>50</v>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>9.192200557103057</v>
+        <v>9.1922005</v>
       </c>
       <c r="I15" s="5" t="n">
         <v>0.45</v>
@@ -1790,25 +1790,25 @@
         <v>69.3</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>0.71</v>
+        <v>6339.01</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>70.05</v>
+        <v>70.23</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>50</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>9.192200557103057</v>
+        <v>9.1922005</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.45</v>
@@ -1876,25 +1876,25 @@
         <v>69.3</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>0.71</v>
+        <v>6339.01</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>70.05</v>
+        <v>70.23</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>110</v>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>20.22284122562673</v>
+        <v>20.2228411</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0.99</v>
@@ -1962,25 +1962,25 @@
         <v>152.46</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>1.57</v>
+        <v>6339.01</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>154.11</v>
+        <v>154.5</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="E18" s="4" t="n">
-        <v>473.5376044568242</v>
+        <v>473.53760446</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>10</v>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>4735.376044568242</v>
+        <v>4735.3760446</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>270</v>
@@ -2048,25 +2048,25 @@
         <v>35700</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.96</v>
+        <v>172.5893015</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>428.43</v>
+        <v>6339.01</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>448.07</v>
+        <v>556.96</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>36148.07</v>
+        <v>36256.96</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3614.81</v>
+        <v>3625.7</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25954.31</v>
+        <v>26032.5</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="E19" s="4" t="n">
-        <v>717.2701949860718</v>
+        <v>717.27019499</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>10</v>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>7172.701949860719</v>
+        <v>7172.7019499</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>440</v>
@@ -2134,25 +2134,25 @@
         <v>54075</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>2.97</v>
+        <v>172.5893015</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>698.1799999999999</v>
+        <v>6339.01</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>727.92</v>
+        <v>907.64</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>54802.92</v>
+        <v>54982.64</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5480.29</v>
+        <v>5498.26</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39348.5</v>
+        <v>39477.53</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="E20" s="4" t="n">
-        <v>72.42339832869075</v>
+        <v>72.42339833</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>3</v>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>217.2701949860723</v>
+        <v>217.27019499</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>2.88</v>
@@ -2220,25 +2220,25 @@
         <v>1638</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3</v>
+        <v>172.5893015</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>4.57</v>
+        <v>6339.01</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>5.47</v>
+        <v>5.94</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>1643.47</v>
+        <v>1643.94</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>547.8200000000001</v>
+        <v>547.98</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3933.37</v>
+        <v>3934.5</v>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="E21" s="4" t="n">
-        <v>2.097493036211698</v>
+        <v>2.09749304</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>45</v>
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>94.3871866295264</v>
+        <v>94.38718679999999</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>2.12</v>
@@ -2306,25 +2306,25 @@
         <v>711.58</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>3.36</v>
+        <v>6339.01</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>3.76</v>
+        <v>4.37</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>715.34</v>
+        <v>715.96</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15.9</v>
+        <v>15.91</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>114.14</v>
+        <v>114.24</v>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0.6406685236768797</v>
+        <v>0.64066852</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>100</v>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>64.06685236768797</v>
+        <v>64.066852</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3</v>
@@ -2392,25 +2392,25 @@
         <v>483</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>4.76</v>
+        <v>6339.01</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>5.03</v>
+        <v>6.19</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>488.03</v>
+        <v>489.19</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35.04</v>
+        <v>35.12</v>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="E23" s="4" t="n">
-        <v>0.3175487465181056</v>
+        <v>0.31754875</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>60</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>19.05292479108634</v>
+        <v>19.052925</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>1</v>
@@ -2478,25 +2478,25 @@
         <v>143.64</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>145.31</v>
+        <v>145.7</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17.39</v>
+        <v>17.44</v>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="E24" s="4" t="n">
-        <v>0.6267409470752084</v>
+        <v>0.62674095</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>100</v>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.674095</v>
       </c>
       <c r="I24" s="5" t="n">
         <v>5</v>
@@ -2564,25 +2564,25 @@
         <v>472.5</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>8.19</v>
+        <v>10.31</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>480.69</v>
+        <v>482.81</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34.51</v>
+        <v>34.67</v>
       </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E25" s="4" t="n">
-        <v>1.178272980501392</v>
+        <v>1.17827298</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>90</v>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>106.0445682451253</v>
+        <v>106.0445682</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>11</v>
@@ -2650,25 +2650,25 @@
         <v>799.47</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>17.45</v>
+        <v>6339.01</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>17.89</v>
+        <v>22.69</v>
       </c>
       <c r="R25" s="5" t="n">
-        <v>817.36</v>
+        <v>822.16</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9.08</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65.20999999999999</v>
+        <v>65.59</v>
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E26" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.67409471</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>2</v>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>125.3481894150417</v>
+        <v>125.34818942</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>1.09</v>
@@ -2736,13 +2736,13 @@
         <v>945</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.26</v>
+        <v>172.5893015</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>1.73</v>
+        <v>6339.01</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2.25</v>
@@ -2754,7 +2754,7 @@
         <v>473.62</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3400.63</v>
+        <v>3400.62</v>
       </c>
       <c r="U26" s="4" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0.1155988857938718</v>
+        <v>0.11559889</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>31</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>3.583565459610025</v>
+        <v>3.58356559</v>
       </c>
       <c r="I27" s="5" t="n">
         <v>0.3</v>
@@ -2822,25 +2822,25 @@
         <v>27.02</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O27" s="5" t="n">
-        <v>0.48</v>
+        <v>6339.01</v>
       </c>
       <c r="P27" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" s="5" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="R27" s="5" t="n">
-        <v>27.51</v>
+        <v>27.64</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>0.89</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6.37</v>
+        <v>6.4</v>
       </c>
       <c r="U27" s="4" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="E28" s="4" t="n">
-        <v>0.0515320334261838</v>
+        <v>0.05153203</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>100</v>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>5.15320334261838</v>
+        <v>5.153203</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.1</v>
@@ -2908,19 +2908,19 @@
         <v>38.85</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O28" s="5" t="n">
-        <v>0.16</v>
+        <v>6339.01</v>
       </c>
       <c r="P28" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" s="5" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="R28" s="5" t="n">
-        <v>39.03</v>
+        <v>39.06</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>0.39</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="E29" s="4" t="n">
-        <v>1.267409470752088</v>
+        <v>1.26740947</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>6</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>7.604456824512529</v>
+        <v>7.60445682</v>
       </c>
       <c r="I29" s="5" t="n">
         <v>1.6</v>
@@ -2994,25 +2994,25 @@
         <v>57.33</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O29" s="5" t="n">
-        <v>2.54</v>
+        <v>6339.01</v>
       </c>
       <c r="P29" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" s="5" t="n">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="R29" s="5" t="n">
-        <v>59.9</v>
+        <v>60.63</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9.98</v>
+        <v>10.11</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>71.68000000000001</v>
+        <v>72.55</v>
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>100.2785515320333</v>
+        <v>100.27855153</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>200.5571030640667</v>
+        <v>200.55710306</v>
       </c>
       <c r="I30" s="5" t="n">
         <v>4.2</v>
@@ -3080,25 +3080,25 @@
         <v>1512</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.42</v>
+        <v>172.5893015</v>
       </c>
       <c r="O30" s="5" t="n">
-        <v>6.66</v>
+        <v>6339.01</v>
       </c>
       <c r="P30" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" s="5" t="n">
-        <v>7.5</v>
+        <v>8.66</v>
       </c>
       <c r="R30" s="5" t="n">
-        <v>1519.5</v>
+        <v>1520.66</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>759.75</v>
+        <v>760.33</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5454.99</v>
+        <v>5459.18</v>
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="E31" s="4" t="n">
-        <v>0.2924791086350973</v>
+        <v>0.29247911</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>40</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>11.69916434540389</v>
+        <v>11.6991644</v>
       </c>
       <c r="I31" s="5" t="n">
         <v>1</v>
@@ -3166,25 +3166,25 @@
         <v>88.2</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O31" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P31" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q31" s="5" t="n">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="R31" s="5" t="n">
-        <v>89.84</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>16.13</v>
+        <v>16.2</v>
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="E32" s="4" t="n">
-        <v>20.19498607242338</v>
+        <v>20.19498607</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>40.38997214484677</v>
+        <v>40.38997214</v>
       </c>
       <c r="I32" s="5" t="n">
         <v>0.8</v>
@@ -3252,25 +3252,25 @@
         <v>304.5</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>0.08</v>
+        <v>172.5893015</v>
       </c>
       <c r="O32" s="5" t="n">
-        <v>1.27</v>
+        <v>6339.01</v>
       </c>
       <c r="P32" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" s="5" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="R32" s="5" t="n">
-        <v>305.94</v>
+        <v>306.15</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>152.97</v>
+        <v>153.08</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1098.31</v>
+        <v>1099.08</v>
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="E33" s="4" t="n">
-        <v>2.325905292479107</v>
+        <v>2.32590529</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>50</v>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>116.2952646239553</v>
+        <v>116.2952645</v>
       </c>
       <c r="I33" s="5" t="n">
         <v>5</v>
@@ -3338,25 +3338,25 @@
         <v>876.75</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O33" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P33" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" s="5" t="n">
-        <v>8.42</v>
+        <v>10.31</v>
       </c>
       <c r="R33" s="5" t="n">
-        <v>885.17</v>
+        <v>887.0599999999999</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>17.7</v>
+        <v>17.74</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>127.11</v>
+        <v>127.38</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="E34" s="4" t="n">
-        <v>1.378830083565459</v>
+        <v>1.37883008</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>100</v>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>137.8830083565458</v>
+        <v>137.883008</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.2</v>
@@ -3424,25 +3424,25 @@
         <v>1039.5</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O34" s="5" t="n">
-        <v>8.25</v>
+        <v>6339.01</v>
       </c>
       <c r="P34" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" s="5" t="n">
-        <v>8.82</v>
+        <v>10.73</v>
       </c>
       <c r="R34" s="5" t="n">
-        <v>1048.32</v>
+        <v>1050.23</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10.48</v>
+        <v>10.5</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>75.27</v>
+        <v>75.41</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="E35" s="4" t="n">
-        <v>7.785515320334256</v>
+        <v>7.78551532</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>2</v>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>15.57103064066851</v>
+        <v>15.57103064</v>
       </c>
       <c r="I35" s="5" t="n">
         <v>5.8</v>
@@ -3510,25 +3510,25 @@
         <v>117.39</v>
       </c>
       <c r="N35" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O35" s="5" t="n">
-        <v>9.199999999999999</v>
+        <v>6339.01</v>
       </c>
       <c r="P35" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q35" s="5" t="n">
-        <v>9.27</v>
+        <v>11.96</v>
       </c>
       <c r="R35" s="5" t="n">
-        <v>126.66</v>
+        <v>129.35</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>63.33</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>454.7</v>
+        <v>464.38</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="E36" s="4" t="n">
-        <v>1.378830083565459</v>
+        <v>1.37883008</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>93</v>
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>128.2311977715877</v>
+        <v>128.23119744</v>
       </c>
       <c r="I36" s="5" t="n">
         <v>5.2</v>
@@ -3596,25 +3596,25 @@
         <v>966.74</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O36" s="5" t="n">
-        <v>8.25</v>
+        <v>6339.01</v>
       </c>
       <c r="P36" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q36" s="5" t="n">
-        <v>8.779999999999999</v>
+        <v>10.73</v>
       </c>
       <c r="R36" s="5" t="n">
-        <v>975.52</v>
+        <v>977.46</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>75.31</v>
+        <v>75.45999999999999</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="E37" s="4" t="n">
-        <v>0.1894150417827297</v>
+        <v>0.18941504</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>42</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>7.955431754874646</v>
+        <v>7.95543168</v>
       </c>
       <c r="I37" s="5" t="n">
         <v>5.8</v>
@@ -3682,25 +3682,25 @@
         <v>59.98</v>
       </c>
       <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O37" s="5" t="n">
-        <v>9.199999999999999</v>
+        <v>6339.01</v>
       </c>
       <c r="P37" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q37" s="5" t="n">
-        <v>9.24</v>
+        <v>11.96</v>
       </c>
       <c r="R37" s="5" t="n">
-        <v>69.20999999999999</v>
+        <v>71.94</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>11.83</v>
+        <v>12.3</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E38" s="4" t="n">
-        <v>0.3412256267409469</v>
+        <v>0.34122563</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>70</v>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>23.88579387186628</v>
+        <v>23.8857941</v>
       </c>
       <c r="I38" s="5" t="n">
         <v>1.5</v>
@@ -3768,25 +3768,25 @@
         <v>180.08</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O38" s="5" t="n">
-        <v>2.38</v>
+        <v>6339.01</v>
       </c>
       <c r="P38" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q38" s="5" t="n">
-        <v>2.48</v>
+        <v>3.09</v>
       </c>
       <c r="R38" s="5" t="n">
-        <v>182.55</v>
+        <v>183.17</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>18.72</v>
+        <v>18.79</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="E39" s="4" t="n">
-        <v>0.1643454038997213</v>
+        <v>0.1643454</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>70</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>11.50417827298049</v>
+        <v>11.504178</v>
       </c>
       <c r="I39" s="5" t="n">
         <v>1.5</v>
@@ -3854,25 +3854,25 @@
         <v>86.73</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O39" s="5" t="n">
-        <v>2.38</v>
+        <v>6339.01</v>
       </c>
       <c r="P39" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q39" s="5" t="n">
-        <v>2.43</v>
+        <v>3.09</v>
       </c>
       <c r="R39" s="5" t="n">
-        <v>89.16</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>9.15</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="E40" s="4" t="n">
-        <v>2.57660167130919</v>
+        <v>2.57660167</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>50</v>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>128.8300835654595</v>
+        <v>128.8300835</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1</v>
@@ -3940,25 +3940,25 @@
         <v>971.25</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O40" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P40" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q40" s="5" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R40" s="5" t="n">
-        <v>973.37</v>
+        <v>973.3099999999999</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>19.47</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>139.78</v>
+        <v>139.77</v>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="E41" s="4" t="n">
-        <v>0.3481894150417825</v>
+        <v>0.34818942</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>348</v>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>121.1699164345403</v>
+        <v>121.16991816</v>
       </c>
       <c r="I41" s="5" t="n">
         <v>9.300000000000001</v>
@@ -4026,25 +4026,25 @@
         <v>913.5</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O41" s="5" t="n">
-        <v>14.76</v>
+        <v>6339.01</v>
       </c>
       <c r="P41" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q41" s="5" t="n">
-        <v>15.26</v>
+        <v>19.18</v>
       </c>
       <c r="R41" s="5" t="n">
-        <v>928.76</v>
+        <v>932.6799999999999</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>19.16</v>
+        <v>19.24</v>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="E42" s="4" t="n">
-        <v>5.849582172701945</v>
+        <v>5.84958217</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>20</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>116.9916434540389</v>
+        <v>116.9916434</v>
       </c>
       <c r="I42" s="5" t="n">
         <v>2.56</v>
@@ -4112,25 +4112,25 @@
         <v>882</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>0.02</v>
+        <v>172.5893015</v>
       </c>
       <c r="O42" s="5" t="n">
-        <v>4.06</v>
+        <v>6339.01</v>
       </c>
       <c r="P42" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q42" s="5" t="n">
-        <v>4.55</v>
+        <v>5.28</v>
       </c>
       <c r="R42" s="5" t="n">
-        <v>886.55</v>
+        <v>887.28</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>44.33</v>
+        <v>44.36</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>318.27</v>
+        <v>318.53</v>
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         </is>
       </c>
       <c r="E43" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>100</v>
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I43" s="5" t="n">
         <v>0.5</v>
@@ -4198,25 +4198,25 @@
         <v>13.65</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O43" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P43" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q43" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R43" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="E44" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>100</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I44" s="5" t="n">
         <v>0.5</v>
@@ -4284,25 +4284,25 @@
         <v>13.65</v>
       </c>
       <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O44" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P44" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q44" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R44" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="E45" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>100</v>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I45" s="5" t="n">
         <v>0.5</v>
@@ -4370,25 +4370,25 @@
         <v>13.65</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O45" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P45" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q45" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R45" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U45" s="4" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>100</v>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.5</v>
@@ -4456,25 +4456,25 @@
         <v>13.65</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O46" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P46" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q46" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R46" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="E47" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>100</v>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I47" s="5" t="n">
         <v>0.5</v>
@@ -4542,25 +4542,25 @@
         <v>13.65</v>
       </c>
       <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O47" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P47" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q47" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R47" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U47" s="4" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="E48" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>100</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I48" s="5" t="n">
         <v>0.5</v>
@@ -4628,25 +4628,25 @@
         <v>13.65</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O48" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P48" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q48" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R48" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U48" s="4" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="E49" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>100</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I49" s="5" t="n">
         <v>0.5</v>
@@ -4714,25 +4714,25 @@
         <v>13.65</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O49" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P49" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q49" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R49" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U49" s="4" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>100</v>
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I50" s="5" t="n">
         <v>0.5</v>
@@ -4800,25 +4800,25 @@
         <v>13.65</v>
       </c>
       <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O50" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P50" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q50" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R50" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U50" s="4" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="E51" s="4" t="n">
-        <v>0.03899721448467964</v>
+        <v>0.03899721</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>100</v>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>3.899721448467964</v>
+        <v>3.899721</v>
       </c>
       <c r="I51" s="5" t="n">
         <v>0.5</v>
@@ -4886,25 +4886,25 @@
         <v>29.4</v>
       </c>
       <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O51" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P51" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q51" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="R51" s="5" t="n">
-        <v>30.21</v>
+        <v>30.43</v>
       </c>
       <c r="S51" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="U51" s="4" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="E52" s="4" t="n">
-        <v>0.08356545961002779</v>
+        <v>0.08356545999999999</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>100</v>
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>8.356545961002778</v>
+        <v>8.356546</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.5</v>
@@ -4972,25 +4972,25 @@
         <v>63</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O52" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P52" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q52" s="5" t="n">
-        <v>0.83</v>
+        <v>1.03</v>
       </c>
       <c r="R52" s="5" t="n">
-        <v>63.83</v>
+        <v>64.03</v>
       </c>
       <c r="S52" s="5" t="n">
         <v>0.64</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="E53" s="4" t="n">
-        <v>0.03342618384401112</v>
+        <v>0.03342618</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>100</v>
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>3.342618384401112</v>
+        <v>3.342618</v>
       </c>
       <c r="I53" s="5" t="n">
         <v>0.5</v>
@@ -5058,25 +5058,25 @@
         <v>25.2</v>
       </c>
       <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O53" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P53" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q53" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="R53" s="5" t="n">
-        <v>26.01</v>
+        <v>26.23</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>0.26</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U53" s="4" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="E54" s="4" t="n">
-        <v>0.05292479108635094</v>
+        <v>0.05292479</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>100</v>
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>5.292479108635094</v>
+        <v>5.292479</v>
       </c>
       <c r="I54" s="5" t="n">
         <v>0.5</v>
@@ -5144,25 +5144,25 @@
         <v>39.9</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O54" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P54" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q54" s="5" t="n">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
       <c r="R54" s="5" t="n">
-        <v>40.72</v>
+        <v>40.93</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>0.41</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="U54" s="4" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0.0278551532033426</v>
+        <v>0.02785515</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>100</v>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.785515</v>
       </c>
       <c r="I55" s="5" t="n">
         <v>0.5</v>
@@ -5230,25 +5230,25 @@
         <v>21</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O55" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P55" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q55" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R55" s="5" t="n">
-        <v>21.8</v>
+        <v>22.03</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>0.22</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U55" s="4" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="E56" s="4" t="n">
-        <v>0.1671309192200556</v>
+        <v>0.16713092</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>420</v>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>70.19498607242335</v>
+        <v>70.1949864</v>
       </c>
       <c r="I56" s="5" t="n">
         <v>0.2</v>
@@ -5316,25 +5316,25 @@
         <v>529.2</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O56" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P56" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q56" s="5" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="R56" s="5" t="n">
-        <v>529.8099999999999</v>
+        <v>529.61</v>
       </c>
       <c r="S56" s="5" t="n">
         <v>1.26</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>9.06</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="U56" s="4" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="E57" s="4" t="n">
-        <v>0.4874651810584955</v>
+        <v>0.48746518</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>100</v>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>48.74651810584955</v>
+        <v>48.746518</v>
       </c>
       <c r="I57" s="5" t="n">
         <v>0.2</v>
@@ -5402,19 +5402,19 @@
         <v>367.5</v>
       </c>
       <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O57" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P57" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q57" s="5" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="R57" s="5" t="n">
-        <v>368.02</v>
+        <v>367.91</v>
       </c>
       <c r="S57" s="5" t="n">
         <v>3.68</v>
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="E58" s="4" t="n">
-        <v>11.14206128133704</v>
+        <v>11.14206128</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>11.14206128133704</v>
+        <v>11.14206128</v>
       </c>
       <c r="I58" s="5" t="n">
         <v>0.2</v>
@@ -5488,25 +5488,25 @@
         <v>84</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O58" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P58" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q58" s="5" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="R58" s="5" t="n">
-        <v>84.36</v>
+        <v>84.41</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>84.36</v>
+        <v>84.41</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>605.73</v>
+        <v>606.08</v>
       </c>
       <c r="U58" s="4" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="E59" s="4" t="n">
-        <v>236.7688022284121</v>
+        <v>236.76880223</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>2</v>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>473.5376044568242</v>
+        <v>473.53760446</v>
       </c>
       <c r="I59" s="5" t="n">
         <v>1</v>
@@ -5574,25 +5574,25 @@
         <v>3570</v>
       </c>
       <c r="N59" s="5" t="n">
-        <v>0.98</v>
+        <v>172.5893015</v>
       </c>
       <c r="O59" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P59" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q59" s="5" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="R59" s="5" t="n">
-        <v>3573.55</v>
+        <v>3572.06</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>1786.78</v>
+        <v>1786.03</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>12829.05</v>
+        <v>12823.71</v>
       </c>
       <c r="U59" s="4" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="E60" s="4" t="n">
-        <v>376.044568245125</v>
+        <v>376.04456825</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>5</v>
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>1880.222841225625</v>
+        <v>1880.22284125</v>
       </c>
       <c r="I60" s="5" t="n">
         <v>0.2</v>
@@ -5660,25 +5660,25 @@
         <v>14175</v>
       </c>
       <c r="N60" s="5" t="n">
-        <v>1.56</v>
+        <v>172.5893015</v>
       </c>
       <c r="O60" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P60" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q60" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="R60" s="5" t="n">
-        <v>14183.11</v>
+        <v>14175.41</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>2836.62</v>
+        <v>2835.08</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>20366.95</v>
+        <v>20355.89</v>
       </c>
       <c r="U60" s="4" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="E61" s="4" t="n">
-        <v>153.2033426183843</v>
+        <v>153.20334262</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>153.2033426183843</v>
+        <v>153.20334262</v>
       </c>
       <c r="I61" s="5" t="n">
         <v>0.4</v>
@@ -5746,25 +5746,25 @@
         <v>1155</v>
       </c>
       <c r="N61" s="5" t="n">
-        <v>0.64</v>
+        <v>172.5893015</v>
       </c>
       <c r="O61" s="5" t="n">
-        <v>0.63</v>
+        <v>6339.01</v>
       </c>
       <c r="P61" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q61" s="5" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="R61" s="5" t="n">
-        <v>1156.27</v>
+        <v>1155.83</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>1156.27</v>
+        <v>1155.83</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>8302.02</v>
+        <v>8298.82</v>
       </c>
       <c r="U61" s="4" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="E62" s="4" t="n">
-        <v>153.2033426183843</v>
+        <v>153.20334262</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>1</v>
@@ -5814,7 +5814,7 @@
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>153.2033426183843</v>
+        <v>153.20334262</v>
       </c>
       <c r="I62" s="5" t="n">
         <v>0.4</v>
@@ -5832,25 +5832,25 @@
         <v>1155</v>
       </c>
       <c r="N62" s="5" t="n">
-        <v>0.64</v>
+        <v>172.5893015</v>
       </c>
       <c r="O62" s="5" t="n">
-        <v>0.63</v>
+        <v>6339.01</v>
       </c>
       <c r="P62" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q62" s="5" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="R62" s="5" t="n">
-        <v>1156.27</v>
+        <v>1155.83</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>1156.27</v>
+        <v>1155.83</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>8302.02</v>
+        <v>8298.82</v>
       </c>
       <c r="U62" s="4" t="inlineStr">
         <is>
@@ -5895,18 +5895,14 @@
       <c r="M63" s="5" t="n">
         <v>134381.59</v>
       </c>
-      <c r="N63" s="5" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="O63" s="5" t="n">
-        <v>1303.03</v>
-      </c>
+      <c r="N63" s="5" t="n"/>
+      <c r="O63" s="5" t="n"/>
       <c r="P63" s="5" t="n"/>
       <c r="Q63" s="5" t="n">
-        <v>1377.01</v>
+        <v>1693.97</v>
       </c>
       <c r="R63" s="5" t="n">
-        <v>135758.56</v>
+        <v>136075.55</v>
       </c>
       <c r="S63" s="5" t="n"/>
       <c r="T63" s="5" t="n"/>

--- a/outputs/reimport_invoice_factory_Daman.xlsx
+++ b/outputs/reimport_invoice_factory_Daman.xlsx
@@ -100,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>

--- a/outputs/reimport_invoice_factory_Daman.xlsx
+++ b/outputs/reimport_invoice_factory_Daman.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -86,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -100,7 +102,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -550,10 +558,10 @@
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>465</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -561,7 +569,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="7" t="n">
         <v>324.0643962</v>
       </c>
     </row>
@@ -586,10 +594,10 @@
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>500</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -597,7 +605,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="7" t="n">
         <v>348.45634</v>
       </c>
     </row>
@@ -620,10 +628,10 @@
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>546</v>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -631,7 +639,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="7" t="n">
         <v>380.51432328</v>
       </c>
     </row>
@@ -654,10 +662,10 @@
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>40</v>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -665,7 +673,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="7" t="n">
         <v>27.8765072</v>
       </c>
     </row>
@@ -688,10 +696,10 @@
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>40</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -699,7 +707,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="7" t="n">
         <v>27.8765072</v>
       </c>
     </row>
@@ -722,10 +730,10 @@
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>0.13798871</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>250</v>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -733,7 +741,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="7" t="n">
         <v>34.4971775</v>
       </c>
     </row>
@@ -756,10 +764,10 @@
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>4.10063419</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>100</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -767,7 +775,7 @@
           <t>包</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="7" t="n">
         <v>410.063419</v>
       </c>
     </row>
@@ -790,10 +798,10 @@
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>400</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -801,7 +809,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="7" t="n">
         <v>73.59398</v>
       </c>
     </row>
@@ -824,10 +832,10 @@
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>395</v>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -835,7 +843,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="7" t="n">
         <v>72.67405524999999</v>
       </c>
     </row>
@@ -858,10 +866,10 @@
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>400</v>
       </c>
       <c r="G11" s="4" t="inlineStr">
@@ -869,7 +877,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="7" t="n">
         <v>73.59398</v>
       </c>
     </row>
@@ -892,10 +900,10 @@
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>200</v>
       </c>
       <c r="G12" s="4" t="inlineStr">
@@ -903,7 +911,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="7" t="n">
         <v>36.79699</v>
       </c>
     </row>
@@ -926,10 +934,10 @@
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>90</v>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -937,7 +945,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="7" t="n">
         <v>16.5586455</v>
       </c>
     </row>
@@ -960,10 +968,10 @@
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>60</v>
       </c>
       <c r="G14" s="4" t="inlineStr">
@@ -971,7 +979,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="7" t="n">
         <v>11.039097</v>
       </c>
     </row>
@@ -994,10 +1002,10 @@
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>50</v>
       </c>
       <c r="G15" s="4" t="inlineStr">
@@ -1005,7 +1013,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="7" t="n">
         <v>9.1992475</v>
       </c>
     </row>
@@ -1028,10 +1036,10 @@
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>50</v>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -1039,7 +1047,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="7" t="n">
         <v>9.1992475</v>
       </c>
     </row>
@@ -1062,10 +1070,10 @@
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>110</v>
       </c>
       <c r="G17" s="4" t="inlineStr">
@@ -1073,7 +1081,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="7" t="n">
         <v>20.2383445</v>
       </c>
     </row>
@@ -1096,10 +1104,10 @@
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>153.79468953</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -1107,7 +1115,7 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="7" t="n">
         <v>461.38406859</v>
       </c>
     </row>
@@ -1130,10 +1138,10 @@
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>203.47062513</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1141,7 +1149,7 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="7" t="n">
         <v>203.47062513</v>
       </c>
     </row>
@@ -1164,10 +1172,10 @@
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>123.06084048</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="inlineStr">
@@ -1175,7 +1183,7 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="7" t="n">
         <v>123.06084048</v>
       </c>
     </row>
@@ -1188,12 +1196,12 @@
       </c>
       <c r="C21" s="4" t="n"/>
       <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="5" t="n">
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6" t="n">
         <v>3701</v>
       </c>
       <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="7" t="n">
         <v>2664.15779183</v>
       </c>
     </row>

--- a/outputs/reimport_invoice_factory_Daman.xlsx
+++ b/outputs/reimport_invoice_factory_Daman.xlsx
@@ -2,11 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Commercial Invoice" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,12 +29,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -55,27 +52,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -93,27 +75,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -476,9 +458,729 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sr No.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>P/N.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Model NO.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>QUANTITY</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CTNS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Carton MEASUREMENT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>G.W (KG)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>N.W(KG)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Carton NO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>J100.S07-010-05-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.符合白光牌烙铁手柄使用；
+2. 900M-T-K
+3.刀口宽度：5mm</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>465</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23*23*23</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-04-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.符合白光牌烙铁手柄使用；
+2. 900M-T-B
+3.圆头，宽度1.2mm</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>500</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>J100.S07-010-06-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>900M-T-4C</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>546</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>J100.S07-010-06-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>900M-T-2C</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>J100.S07-010-11-00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>900-T-1.2D</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C100.C06-019-06-00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>焊接海绵</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>size:60mm X 55mm</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C100.C06-019-05-00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>无尘布</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>L*W 4*4CM 400pcs/bog</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>46*25*35</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>F08-F11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>E100.A20-001-15-00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.30x75x4.0x1</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>400</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>26*27*27</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>E100.A20-001-16-00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.30X75X3.0</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>395</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>E100.A20-001-17-00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.30X75X3.5</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>400</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>E100.A20-001-20-00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.30X75X2.5X1</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>200</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>E100.A20-001-52-00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.30X75XT6</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>90</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>E100.A20-001-53-00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.30X75XT7</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>E100.A20-001-54-00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.30X75XT8</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>50</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>E100.A20-001-22-00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.30X100X3.8XT9</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>E100.A20-001-33-00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.30X100X3.8XT10</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>110</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>E100.019100006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>双侧皮带拉</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>50.60 mtrX300 mm</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>38*38*40</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>60</v>
+      </c>
+      <c r="I18" t="n">
+        <v>57</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>F13-F15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>26</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>E100.019100007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>单侧皮带拉</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.20mtrx400 mm</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>38*38*40</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>19</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>F16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>E100.019100008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>双侧皮带拉</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.5mtrX300 mm</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>38*38*40</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>F17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3701</v>
+      </c>
+      <c r="H21" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>158.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -1188,24 +1890,24 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
+      <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="6" t="n">
         <v>3701</v>
       </c>
-      <c r="G21" s="4" t="n"/>
+      <c r="G21" s="4" t="inlineStr"/>
       <c r="H21" s="7" t="n">
         <v>2664.15779183</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/reimport_invoice_factory_Daman.xlsx
+++ b/outputs/reimport_invoice_factory_Daman.xlsx
@@ -545,10 +545,8 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>23*23*23</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
         <v>10.08</v>
@@ -734,10 +732,8 @@
       <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>46*25*35</t>
-        </is>
+      <c r="G8" t="n">
+        <v>0.04</v>
       </c>
       <c r="H8" t="n">
         <v>40.6</v>
@@ -776,10 +772,8 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>26*27*27</t>
-        </is>
+      <c r="G9" t="n">
+        <v>0.02</v>
       </c>
       <c r="H9" t="n">
         <v>15</v>
@@ -1050,10 +1044,8 @@
       <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G18" t="n">
+        <v>0.06</v>
       </c>
       <c r="H18" t="n">
         <v>60</v>
@@ -1092,10 +1084,8 @@
       <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G19" t="n">
+        <v>0.06</v>
       </c>
       <c r="H19" t="n">
         <v>20</v>
@@ -1134,10 +1124,8 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G20" t="n">
+        <v>0.06</v>
       </c>
       <c r="H20" t="n">
         <v>20</v>

--- a/outputs/reimport_invoice_factory_Daman.xlsx
+++ b/outputs/reimport_invoice_factory_Daman.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>焊接海绵</t>
+          <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>无尘布</t>
+          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>单侧皮带拉</t>
+          <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H2" s="7" t="n">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H3" s="7" t="n">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H4" s="7" t="n">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H5" s="7" t="n">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H6" s="7" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>焊接海绵</t>
+          <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H7" s="7" t="n">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>无尘布</t>
+          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H9" s="7" t="n">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H10" s="7" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H11" s="7" t="n">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H12" s="7" t="n">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H13" s="7" t="n">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H14" s="7" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H15" s="7" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H16" s="7" t="n">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H17" s="7" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>单侧皮带拉</t>
+          <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
